--- a/TestIP.xlsx
+++ b/TestIP.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="LightningAccountFunctionalE2E" sheetId="2" r:id="rId2"/>
+    <x:sheet name="TestingPackage" sheetId="2" r:id="rId2"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -79,28 +79,28 @@
     <x:t>User should be able to input value for the Account Name field.</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">Valid value for required field Customer Priority, value should be equals High to submit for Approval towards to the assigned approver </x:t>
+    <x:t xml:space="preserve">Valid value for required field  </x:t>
   </x:si>
   <x:si>
     <x:t>Step 3</x:t>
   </x:si>
   <x:si>
-    <x:t>Input valid value in the  Customer Priority field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Value accepted for Customer Priority field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Valid value for SLA Expiration Date </x:t>
+    <x:t>Input valid value in the   field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the  field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field Annual Revenue, value should be greater than 50000 to submit for Approval towards to the assigned approver </x:t>
   </x:si>
   <x:si>
     <x:t>Step 4</x:t>
   </x:si>
   <x:si>
-    <x:t>Input valid value in the  SLA Expiration Date field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to input value for the SLA Expiration Date field.</x:t>
+    <x:t>Input valid value in the  Annual Revenue field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Value accepted for Annual Revenue field.</x:t>
   </x:si>
   <x:si>
     <x:t>Step 5</x:t>
@@ -554,7 +554,7 @@
     <x:col min="2" max="2" width="26.270625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="14.700625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="69.980624999999989" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="120.410625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="125.550625" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="9.410625" style="0" customWidth="1"/>
     <x:col min="7" max="7" width="123.130625" style="0" customWidth="1"/>
     <x:col min="8" max="8" width="107.550625" style="0" customWidth="1"/>

--- a/TestIP.xlsx
+++ b/TestIP.xlsx
@@ -6,7 +6,8 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="TestingPackage" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Salesforce_TestingPackage" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Salesforce_LightningAccount" sheetId="3" r:id="rId3"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -155,6 +156,24 @@
   </x:si>
   <x:si>
     <x:t>User should be able to view the e-mail to either Approve/Reject the request.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field Customer Priority, value should be equals High to submit for Approval towards to the assigned approver </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Customer Priority field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Value accepted for Customer Priority field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for SLA Expiration Date </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  SLA Expiration Date field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the SLA Expiration Date field.</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -239,6 +258,25 @@
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
 <x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J11" totalsRowShown="0">
+  <x:autoFilter ref="A1:J11"/>
+  <x:tableColumns count="10">
+    <x:tableColumn id="1" name="TestScenarioID"/>
+    <x:tableColumn id="2" name="TestCaseID"/>
+    <x:tableColumn id="3" name="Description"/>
+    <x:tableColumn id="4" name="Precondition"/>
+    <x:tableColumn id="5" name="TestData"/>
+    <x:tableColumn id="6" name="Steps"/>
+    <x:tableColumn id="7" name="UserAction"/>
+    <x:tableColumn id="8" name="ExpectedResult"/>
+    <x:tableColumn id="9" name="Approved/Rejected"/>
+    <x:tableColumn id="10" name="ReasonToReject"/>
+  </x:tableColumns>
+  <x:tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</x:table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table11" displayName="Table11" ref="A1:J11" totalsRowShown="0">
   <x:autoFilter ref="A1:J11"/>
   <x:tableColumns count="10">
     <x:tableColumn id="1" name="TestScenarioID"/>
@@ -794,7 +832,267 @@
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="1">
-    <x:tablePart r:id="rId5"/>
+    <x:tablePart r:id="rId6"/>
+  </x:tableParts>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:J11"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="1" width="15.980625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="26.270625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="14.700625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="69.980624999999989" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="120.410625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="9.410625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="123.130625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="107.550625" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="20.410625" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="16.980625" style="0" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:10">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H1" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I1" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="J1" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:10">
+      <x:c r="A2" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s"/>
+      <x:c r="F2" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="s"/>
+      <x:c r="J2" s="0" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:10">
+      <x:c r="A3" s="0" t="s"/>
+      <x:c r="B3" s="0" t="s"/>
+      <x:c r="C3" s="0" t="s"/>
+      <x:c r="D3" s="0" t="s"/>
+      <x:c r="E3" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="I3" s="0" t="s"/>
+      <x:c r="J3" s="0" t="s"/>
+    </x:row>
+    <x:row r="4" spans="1:10">
+      <x:c r="A4" s="0" t="s"/>
+      <x:c r="B4" s="0" t="s"/>
+      <x:c r="C4" s="0" t="s"/>
+      <x:c r="D4" s="0" t="s"/>
+      <x:c r="E4" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="s"/>
+      <x:c r="J4" s="0" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:10">
+      <x:c r="A5" s="0" t="s"/>
+      <x:c r="B5" s="0" t="s"/>
+      <x:c r="C5" s="0" t="s"/>
+      <x:c r="D5" s="0" t="s"/>
+      <x:c r="E5" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="I5" s="0" t="s"/>
+      <x:c r="J5" s="0" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:10">
+      <x:c r="A6" s="0" t="s"/>
+      <x:c r="B6" s="0" t="s"/>
+      <x:c r="C6" s="0" t="s"/>
+      <x:c r="D6" s="0" t="s"/>
+      <x:c r="E6" s="0" t="s"/>
+      <x:c r="F6" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="I6" s="0" t="s"/>
+      <x:c r="J6" s="0" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:10">
+      <x:c r="A7" s="0" t="s"/>
+      <x:c r="B7" s="0" t="s"/>
+      <x:c r="C7" s="0" t="s"/>
+      <x:c r="D7" s="0" t="s"/>
+      <x:c r="E7" s="0" t="s"/>
+      <x:c r="F7" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="I7" s="0" t="s"/>
+      <x:c r="J7" s="0" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:10">
+      <x:c r="A8" s="0" t="s"/>
+      <x:c r="B8" s="0" t="s"/>
+      <x:c r="C8" s="0" t="s"/>
+      <x:c r="D8" s="0" t="s"/>
+      <x:c r="E8" s="0" t="s"/>
+      <x:c r="F8" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="I8" s="0" t="s"/>
+      <x:c r="J8" s="0" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:10">
+      <x:c r="A9" s="0" t="s"/>
+      <x:c r="B9" s="0" t="s"/>
+      <x:c r="C9" s="0" t="s"/>
+      <x:c r="D9" s="0" t="s"/>
+      <x:c r="E9" s="0" t="s"/>
+      <x:c r="F9" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="I9" s="0" t="s"/>
+      <x:c r="J9" s="0" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:10">
+      <x:c r="A10" s="0" t="s"/>
+      <x:c r="B10" s="0" t="s"/>
+      <x:c r="C10" s="0" t="s"/>
+      <x:c r="D10" s="0" t="s"/>
+      <x:c r="E10" s="0" t="s"/>
+      <x:c r="F10" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I10" s="0" t="s"/>
+      <x:c r="J10" s="0" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:10">
+      <x:c r="A11" s="0" t="s"/>
+      <x:c r="B11" s="0" t="s"/>
+      <x:c r="C11" s="0" t="s"/>
+      <x:c r="D11" s="0" t="s"/>
+      <x:c r="E11" s="0" t="s"/>
+      <x:c r="F11" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="I11" s="0" t="s"/>
+      <x:c r="J11" s="0" t="s"/>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="1">
+    <x:tablePart r:id="rId7"/>
   </x:tableParts>
 </x:worksheet>
 </file>
--- a/TestIP.xlsx
+++ b/TestIP.xlsx
@@ -6,8 +6,8 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Salesforce_TestingPackage" sheetId="2" r:id="rId2"/>
-    <x:sheet name="Salesforce_LightningAccount" sheetId="3" r:id="rId3"/>
+    <x:sheet name="Salesforce_LightningAccount" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Salesforce_TestingPackage" sheetId="3" r:id="rId3"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -156,24 +156,6 @@
   </x:si>
   <x:si>
     <x:t>User should be able to view the e-mail to either Approve/Reject the request.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Valid value for required field Customer Priority, value should be equals High to submit for Approval towards to the assigned approver </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the  Customer Priority field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Value accepted for Customer Priority field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Valid value for SLA Expiration Date </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the  SLA Expiration Date field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to input value for the SLA Expiration Date field.</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -852,7 +834,7 @@
     <x:col min="2" max="2" width="26.270625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="14.700625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="69.980624999999989" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="120.410625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="125.550625" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="9.410625" style="0" customWidth="1"/>
     <x:col min="7" max="7" width="123.130625" style="0" customWidth="1"/>
     <x:col min="8" max="8" width="107.550625" style="0" customWidth="1"/>
@@ -944,16 +926,16 @@
       <x:c r="C4" s="0" t="s"/>
       <x:c r="D4" s="0" t="s"/>
       <x:c r="E4" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H4" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I4" s="0" t="s"/>
       <x:c r="J4" s="0" t="s"/>
@@ -964,16 +946,16 @@
       <x:c r="C5" s="0" t="s"/>
       <x:c r="D5" s="0" t="s"/>
       <x:c r="E5" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H5" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I5" s="0" t="s"/>
       <x:c r="J5" s="0" t="s"/>
